--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2645518.887096634</v>
+        <v>-2648459.495238658</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>151.644659307441</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.28384097019985</v>
+        <v>13.28384097019986</v>
       </c>
       <c r="H8" t="n">
-        <v>151.644659307441</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="I8" t="n">
-        <v>132.6423805217916</v>
+        <v>132.6423805217919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.0496078503638</v>
+        <v>23.04960785036448</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="T8" t="n">
-        <v>109.3614001413684</v>
+        <v>109.3614001413637</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>151.644659307441</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>151.644659307441</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>33.09037662280301</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>104.6778330379933</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>144.3436565748479</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.644659307441</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>151.644659307441</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>29.33273078138075</v>
+        <v>29.33273078138109</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.32976540324704</v>
+        <v>10.32976540324745</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>102.1460026834604</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>96.93530602259487</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>150.6944167404165</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.93034877516573</v>
+        <v>91.9303487751657</v>
       </c>
       <c r="T11" t="n">
         <v>200.6028050067863</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>259.0669858291378</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T12" t="n">
         <v>189.0833237787849</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>81.97599399093703</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S13" t="n">
-        <v>168.0788281401886</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T13" t="n">
         <v>218.097472392356</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>306.6358760653437</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>410.1644063769638</v>
       </c>
       <c r="H14" t="n">
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516578</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067864</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>250.9345864167829</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>6.738238156583484</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>80.41527379555093</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>37.95364514237652</v>
       </c>
       <c r="T16" t="n">
         <v>218.097472392356</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.265843389497</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651978</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707192</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684678</v>
       </c>
       <c r="E23" t="n">
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038396</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
         <v>117.0052706659984</v>
@@ -2485,16 +2485,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139452987</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998808</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295187</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W26" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464138</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139452747</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221587</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424848</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612644</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424839</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612648</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,13 +3241,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612659</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3329,7 +3329,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262555</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612664</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3664,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453014</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612644</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894981</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894972</v>
+        <v>375.2658433894998</v>
       </c>
       <c r="G44" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612644</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
       <c r="C8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
       <c r="D8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
       <c r="E8" t="n">
-        <v>319.6537207659526</v>
+        <v>319.653720765951</v>
       </c>
       <c r="F8" t="n">
-        <v>312.7082200167492</v>
+        <v>312.7082200167476</v>
       </c>
       <c r="G8" t="n">
-        <v>299.2901988347292</v>
+        <v>299.2901988347275</v>
       </c>
       <c r="H8" t="n">
-        <v>146.1137752918595</v>
+        <v>146.1137752918597</v>
       </c>
       <c r="I8" t="n">
-        <v>12.13157274459528</v>
+        <v>12.13157274459513</v>
       </c>
       <c r="J8" t="n">
-        <v>68.33545149101784</v>
+        <v>68.33545149102036</v>
       </c>
       <c r="K8" t="n">
-        <v>104.6895982205102</v>
+        <v>104.6895982205114</v>
       </c>
       <c r="L8" t="n">
-        <v>186.6918937499361</v>
+        <v>186.6918937499356</v>
       </c>
       <c r="M8" t="n">
-        <v>309.6046851213308</v>
+        <v>309.6046851213284</v>
       </c>
       <c r="N8" t="n">
-        <v>439.1201423373147</v>
+        <v>439.1201423373104</v>
       </c>
       <c r="O8" t="n">
-        <v>548.0826547129413</v>
+        <v>548.0826547129352</v>
       </c>
       <c r="P8" t="n">
-        <v>606.578637229764</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="Q8" t="n">
-        <v>606.578637229764</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="R8" t="n">
-        <v>583.2962050576793</v>
+        <v>583.296205057671</v>
       </c>
       <c r="S8" t="n">
-        <v>583.2962050576793</v>
+        <v>430.1197815148033</v>
       </c>
       <c r="T8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
       <c r="U8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
       <c r="V8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
       <c r="W8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
       <c r="X8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
       <c r="Y8" t="n">
-        <v>472.8301443088224</v>
+        <v>319.653720765951</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>467.418829491586</v>
+        <v>460.7769639218292</v>
       </c>
       <c r="C9" t="n">
-        <v>314.2424059487163</v>
+        <v>460.7769639218292</v>
       </c>
       <c r="D9" t="n">
-        <v>165.307996287465</v>
+        <v>311.8425542605779</v>
       </c>
       <c r="E9" t="n">
-        <v>12.13157274459528</v>
+        <v>158.6661307177102</v>
       </c>
       <c r="F9" t="n">
-        <v>12.13157274459528</v>
+        <v>12.13157274459513</v>
       </c>
       <c r="G9" t="n">
-        <v>12.13157274459528</v>
+        <v>12.13157274459513</v>
       </c>
       <c r="H9" t="n">
-        <v>12.13157274459528</v>
+        <v>12.13157274459513</v>
       </c>
       <c r="I9" t="n">
-        <v>12.13157274459528</v>
+        <v>12.13157274459513</v>
       </c>
       <c r="J9" t="n">
-        <v>12.13157274459528</v>
+        <v>12.13157274459513</v>
       </c>
       <c r="K9" t="n">
-        <v>48.35365398347267</v>
+        <v>48.35365398347145</v>
       </c>
       <c r="L9" t="n">
-        <v>143.3812534467622</v>
+        <v>143.3812534467598</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6308480303864</v>
+        <v>273.6308480303825</v>
       </c>
       <c r="N9" t="n">
-        <v>421.7364067286214</v>
+        <v>421.7364067286163</v>
       </c>
       <c r="O9" t="n">
-        <v>535.0042629692985</v>
+        <v>535.004262969292</v>
       </c>
       <c r="P9" t="n">
-        <v>606.578637229764</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="Q9" t="n">
-        <v>606.578637229764</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="R9" t="n">
-        <v>573.1540143784479</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="S9" t="n">
-        <v>573.1540143784479</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="T9" t="n">
-        <v>573.1540143784479</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="U9" t="n">
-        <v>573.1540143784479</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="V9" t="n">
-        <v>467.418829491586</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="W9" t="n">
-        <v>467.418829491586</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="X9" t="n">
-        <v>467.418829491586</v>
+        <v>460.7769639218292</v>
       </c>
       <c r="Y9" t="n">
-        <v>467.418829491586</v>
+        <v>460.7769639218292</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.0536566910944</v>
+        <v>492.9667502734858</v>
       </c>
       <c r="C10" t="n">
-        <v>191.8772331482247</v>
+        <v>339.790326730618</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76059373588897</v>
+        <v>189.6736873182823</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76059373588897</v>
+        <v>41.76059373588916</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76059373588897</v>
+        <v>41.76059373588916</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76059373588897</v>
+        <v>41.76059373588916</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76059373588897</v>
+        <v>41.76059373588916</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76059373588897</v>
+        <v>41.76059373588916</v>
       </c>
       <c r="J10" t="n">
-        <v>12.13157274459528</v>
+        <v>12.13157274459513</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13157274459528</v>
+        <v>94.24774899885581</v>
       </c>
       <c r="L10" t="n">
-        <v>162.2597854589619</v>
+        <v>244.3759617132205</v>
       </c>
       <c r="M10" t="n">
-        <v>312.3879981733285</v>
+        <v>247.3779446998003</v>
       </c>
       <c r="N10" t="n">
-        <v>350.7108327722826</v>
+        <v>350.7108327722775</v>
       </c>
       <c r="O10" t="n">
-        <v>500.8390454866492</v>
+        <v>500.8390454866422</v>
       </c>
       <c r="P10" t="n">
-        <v>606.578637229764</v>
+        <v>606.5786372297564</v>
       </c>
       <c r="Q10" t="n">
-        <v>596.1445307618377</v>
+        <v>596.1445307618296</v>
       </c>
       <c r="R10" t="n">
-        <v>596.1445307618377</v>
+        <v>596.1445307618296</v>
       </c>
       <c r="S10" t="n">
-        <v>596.1445307618377</v>
+        <v>596.1445307618296</v>
       </c>
       <c r="T10" t="n">
-        <v>596.1445307618377</v>
+        <v>596.1445307618296</v>
       </c>
       <c r="U10" t="n">
-        <v>596.1445307618377</v>
+        <v>596.1445307618296</v>
       </c>
       <c r="V10" t="n">
-        <v>596.1445307618377</v>
+        <v>492.9667502734858</v>
       </c>
       <c r="W10" t="n">
-        <v>596.1445307618377</v>
+        <v>492.9667502734858</v>
       </c>
       <c r="X10" t="n">
-        <v>498.2300802339641</v>
+        <v>492.9667502734858</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.2300802339641</v>
+        <v>492.9667502734858</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2325.545057758603</v>
+        <v>2119.49594171793</v>
       </c>
       <c r="C11" t="n">
-        <v>1956.582540818192</v>
+        <v>1750.533424777519</v>
       </c>
       <c r="D11" t="n">
         <v>1598.316842211441</v>
@@ -5030,61 +5030,61 @@
         <v>801.5426848235895</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2352036347372</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H11" t="n">
-        <v>97.48584166810102</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K11" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L11" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S11" t="n">
-        <v>4156.161510599078</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T11" t="n">
-        <v>3953.532414632627</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="U11" t="n">
-        <v>3700.063135423756</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="V11" t="n">
-        <v>3700.063135423756</v>
+        <v>3622.469527289058</v>
       </c>
       <c r="W11" t="n">
-        <v>3347.294480153641</v>
+        <v>3269.700872018944</v>
       </c>
       <c r="X11" t="n">
-        <v>2973.828721892562</v>
+        <v>2896.235113757864</v>
       </c>
       <c r="Y11" t="n">
-        <v>2712.144897822725</v>
+        <v>2506.095781782052</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J12" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K12" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L12" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538067</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.315654538067</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O12" t="n">
         <v>1959.694692760353</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.5593006080414</v>
+        <v>335.1441411914589</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6231176801346</v>
+        <v>252.340106857179</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5064782677988</v>
+        <v>252.340106857179</v>
       </c>
       <c r="E13" t="n">
-        <v>395.5064782677988</v>
+        <v>252.340106857179</v>
       </c>
       <c r="F13" t="n">
-        <v>395.5064782677988</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G13" t="n">
-        <v>228.1467803857361</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="H13" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J13" t="n">
-        <v>153.8801783755866</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K13" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L13" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M13" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N13" t="n">
-        <v>1553.248699711514</v>
+        <v>1553.248699711515</v>
       </c>
       <c r="O13" t="n">
         <v>1900.114228341785</v>
@@ -5221,28 +5221,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R13" t="n">
-        <v>2279.168624967671</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="S13" t="n">
-        <v>2109.392030886672</v>
+        <v>2019.061021685725</v>
       </c>
       <c r="T13" t="n">
-        <v>1889.091553722676</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U13" t="n">
-        <v>1889.091553722676</v>
+        <v>1509.676394306094</v>
       </c>
       <c r="V13" t="n">
-        <v>1634.407065516789</v>
+        <v>1254.991906100207</v>
       </c>
       <c r="W13" t="n">
-        <v>1344.989895479829</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="X13" t="n">
-        <v>1117.000344581811</v>
+        <v>737.5851851652287</v>
       </c>
       <c r="Y13" t="n">
-        <v>896.2077654382812</v>
+        <v>516.7926060216986</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>1866.026662509058</v>
       </c>
       <c r="C14" t="n">
-        <v>1956.582540818192</v>
+        <v>1497.064145568646</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211441</v>
+        <v>1497.064145568646</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>1111.275892970402</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>801.5426848235898</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347372</v>
+        <v>387.2352036347374</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810102</v>
+        <v>97.48584166810113</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S14" t="n">
-        <v>4249.02044875581</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>4046.39135278936</v>
+        <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>3792.922073580488</v>
+        <v>3700.063135423756</v>
       </c>
       <c r="V14" t="n">
-        <v>3461.859186236918</v>
+        <v>3369.000248080185</v>
       </c>
       <c r="W14" t="n">
-        <v>3109.090530966803</v>
+        <v>3016.231592810071</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>2642.765834548991</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2252.62650257318</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.1441411914584</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="C16" t="n">
-        <v>166.2079582635515</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="D16" t="n">
-        <v>166.2079582635515</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="E16" t="n">
-        <v>166.2079582635515</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="F16" t="n">
-        <v>166.2079582635515</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511621</v>
+        <v>315.1533397258817</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511621</v>
+        <v>171.9869683152618</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755866</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711514</v>
+        <v>1553.248699711515</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5461,25 +5461,25 @@
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2166.429918102211</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>1946.129440938215</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306093</v>
+        <v>1657.045290722579</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100206</v>
+        <v>1402.360802516692</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632456</v>
+        <v>1112.943632479732</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652283</v>
+        <v>884.9540815817143</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.7926060216981</v>
+        <v>664.1615024381841</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076833</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5525,40 +5525,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477713</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042766</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443594</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796657</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511621</v>
@@ -5750,10 +5750,10 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5768,7 +5768,7 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767227</v>
@@ -5777,25 +5777,25 @@
         <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477733</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609063</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039819</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902804</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597206</v>
@@ -5938,10 +5938,10 @@
         <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357084</v>
@@ -5950,7 +5950,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254982</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,64 +5975,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
         <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
         <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1959.694692760353</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
         <v>386.7245456315383</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6154,25 +6154,25 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127668</v>
@@ -6181,16 +6181,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796663</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162837</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N27" t="n">
         <v>1959.694692760353</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502079</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477696</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609024</v>
       </c>
       <c r="E28" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039778</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315383</v>
+        <v>386.724545631536</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749418</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897904</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,37 +6397,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="29">
@@ -6446,22 +6446,22 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
         <v>766.683188695145</v>
@@ -6485,13 +6485,13 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400162</v>
@@ -6534,31 +6534,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6661,7 +6661,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6686,13 +6686,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
         <v>84.98040897511622</v>
@@ -6713,10 +6713,10 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6737,13 +6737,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6789,7 +6789,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6859,7 +6859,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902788</v>
@@ -6868,7 +6868,7 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6877,7 +6877,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
         <v>2487.049233352543</v>
@@ -6889,7 +6889,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6917,19 +6917,19 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511625</v>
@@ -6977,10 +6977,10 @@
         <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7029,7 +7029,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7084,7 +7084,7 @@
         <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
@@ -7093,19 +7093,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042789</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443618</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313936</v>
@@ -7114,19 +7114,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7160,13 +7160,13 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162844</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511675</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511625</v>
@@ -7175,19 +7175,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612704</v>
@@ -7251,22 +7251,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1665.552851106135</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7363,16 +7363,16 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7391,70 +7391,70 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
         <v>519.5985603334505</v>
@@ -7500,10 +7500,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D43" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749444</v>
@@ -7564,7 +7564,7 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
@@ -7588,31 +7588,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112809</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497866</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943809</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076861</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951475</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050966</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746741</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889758</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.06785023329</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755814</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283568</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382062</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437417</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851463</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334505</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277778</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>850.66941185518</v>
       </c>
       <c r="N45" t="n">
-        <v>1934.929714729833</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O45" t="n">
         <v>1934.929714729833</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,7 +7819,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
         <v>2392.455631028688</v>
@@ -7834,7 +7834,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
@@ -7982,16 +7982,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L2" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N2" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O2" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P2" t="n">
         <v>95.50771753390021</v>
@@ -8076,7 +8076,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,7 +8143,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M4" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N4" t="n">
         <v>62.89780050171086</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>66.46617858934832</v>
+        <v>66.46617858935193</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.287575607578219</v>
+        <v>4.287575607579384</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>24.781953973089</v>
+        <v>24.78195397308954</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.094568381834847</v>
+        <v>2.094568381835586</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,19 +8611,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>23.79813376459066</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>151.8902006485525</v>
+        <v>151.8902006485513</v>
       </c>
       <c r="M10" t="n">
-        <v>148.61235326039</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>27.81283449705517</v>
+        <v>93.4795551773822</v>
       </c>
       <c r="O10" t="n">
-        <v>162.0976958607212</v>
+        <v>162.09769586072</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.3588981658848</v>
+        <v>14.35889816588482</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8087073802583</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>174.0885230584365</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>187.5123304152058</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U2" t="n">
-        <v>235.8551182425578</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>268.3669621481102</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.25430980652213</v>
+        <v>14.25430980652214</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>203.9886248802665</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.1709528269158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>85.27082710769081</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I13" t="n">
         <v>86.13649374674407</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.77002445450864</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>100.2401696763678</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>362.9928625218856</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>85.2708271076912</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.8952074523207</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.735589532676386e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17250.53811212329</v>
+        <v>17250.5381121233</v>
       </c>
       <c r="C2" t="n">
-        <v>20483.99483906609</v>
+        <v>20483.9948390661</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>19168.57954878276</v>
       </c>
       <c r="F2" t="n">
-        <v>19168.57954878276</v>
+        <v>19168.57954878275</v>
       </c>
       <c r="G2" t="n">
-        <v>20526.04424660706</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="H2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="I2" t="n">
         <v>20526.04424660707</v>
       </c>
-      <c r="I2" t="n">
-        <v>20526.04424660712</v>
-      </c>
       <c r="J2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660708</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.04424660708</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660708</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>23690.54434158194</v>
       </c>
       <c r="D3" t="n">
-        <v>253847.2511457096</v>
+        <v>253847.2511457067</v>
       </c>
       <c r="E3" t="n">
-        <v>895296.3215397438</v>
+        <v>895296.3215397468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.130283635575324e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63668.0603505508</v>
+        <v>63668.06035055025</v>
       </c>
       <c r="M3" t="n">
-        <v>226927.7672998843</v>
+        <v>226927.7672998849</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>360207.2495555316</v>
       </c>
       <c r="D4" t="n">
-        <v>287483.1975335273</v>
+        <v>287483.1975335281</v>
       </c>
       <c r="E4" t="n">
         <v>9279.934068777682</v>
       </c>
       <c r="F4" t="n">
-        <v>9279.934068777684</v>
+        <v>9279.934068777649</v>
       </c>
       <c r="G4" t="n">
-        <v>40349.81915099775</v>
+        <v>40349.8191509977</v>
       </c>
       <c r="H4" t="n">
-        <v>40349.81915099778</v>
+        <v>40349.81915099769</v>
       </c>
       <c r="I4" t="n">
-        <v>40349.81915099775</v>
+        <v>40349.81915099774</v>
       </c>
       <c r="J4" t="n">
-        <v>40349.81915099778</v>
+        <v>40349.81915099764</v>
       </c>
       <c r="K4" t="n">
-        <v>40349.81915099771</v>
+        <v>40349.81915099772</v>
       </c>
       <c r="L4" t="n">
-        <v>40349.81915099776</v>
+        <v>40349.81915099772</v>
       </c>
       <c r="M4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.81915099772</v>
       </c>
       <c r="N4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.81915099769</v>
       </c>
       <c r="O4" t="n">
-        <v>40349.81915099768</v>
+        <v>40349.81915099767</v>
       </c>
       <c r="P4" t="n">
-        <v>40349.81915099772</v>
+        <v>40349.81915099759</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>39312.96135688073</v>
       </c>
       <c r="D5" t="n">
-        <v>53795.56652493978</v>
+        <v>53795.5665249396</v>
       </c>
       <c r="E5" t="n">
-        <v>92448.99600060699</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060699</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="I5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95106.43410215527</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215528</v>
@@ -26506,10 +26506,10 @@
         <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215533</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539855.0400022072</v>
+        <v>-540182.5906156555</v>
       </c>
       <c r="C6" t="n">
-        <v>-402726.7604149282</v>
+        <v>-402730.9653556822</v>
       </c>
       <c r="D6" t="n">
-        <v>-574599.9709575695</v>
+        <v>-574599.9709575673</v>
       </c>
       <c r="E6" t="n">
-        <v>-977856.6720603458</v>
+        <v>-977992.4185301312</v>
       </c>
       <c r="F6" t="n">
-        <v>-82560.35052060192</v>
+        <v>-82696.09699038428</v>
       </c>
       <c r="G6" t="n">
         <v>-140218.3708883171</v>
       </c>
       <c r="H6" t="n">
+        <v>-114930.2090065457</v>
+      </c>
+      <c r="I6" t="n">
         <v>-114930.209006546</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>-114930.2090065457</v>
+      </c>
+      <c r="K6" t="n">
         <v>-114930.2090065459</v>
       </c>
-      <c r="J6" t="n">
-        <v>-114930.2090065458</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-114930.2090065461</v>
-      </c>
       <c r="L6" t="n">
-        <v>-178598.2693570968</v>
+        <v>-178598.2693570962</v>
       </c>
       <c r="M6" t="n">
-        <v>-341857.9763064302</v>
+        <v>-341857.9763064308</v>
       </c>
       <c r="N6" t="n">
         <v>-114930.2090065459</v>
@@ -26561,7 +26561,7 @@
         <v>-114930.2090065458</v>
       </c>
       <c r="P6" t="n">
-        <v>-114930.2090065459</v>
+        <v>-114930.2090065458</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221391</v>
       </c>
-      <c r="L2" t="n">
-        <v>31.61020235221397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.6102023522139</v>
-      </c>
       <c r="P2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>260.7963925174648</v>
       </c>
       <c r="D3" t="n">
-        <v>502.2005155526314</v>
+        <v>502.2005155526288</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26793,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.644659307441</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26811,7 +26811,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221406</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>26.01635439147063</v>
       </c>
       <c r="D3" t="n">
-        <v>241.4041230351666</v>
+        <v>241.4041230351639</v>
       </c>
       <c r="E3" t="n">
-        <v>775.9593550674913</v>
+        <v>775.9593550674942</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.644659307441</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="E4" t="n">
-        <v>910.6104528815118</v>
+        <v>910.610452881514</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.644659307441</v>
+        <v>151.644659307439</v>
       </c>
       <c r="M4" t="n">
-        <v>910.6104528815117</v>
+        <v>910.6104528815142</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.644659307441</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="M4" t="n">
-        <v>910.6104528815118</v>
+        <v>910.610452881514</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>90.58066941881005</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T2" t="n">
-        <v>218.9641928127885</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>15.41502751733873</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>59.38529632202471</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>230.2857107648208</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>167.1541185675085</v>
+        <v>167.1541185675105</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.0144645685344</v>
+        <v>11.36980526109556</v>
       </c>
       <c r="T8" t="n">
-        <v>104.8967297973091</v>
+        <v>104.8967297973139</v>
       </c>
       <c r="U8" t="n">
         <v>251.1841411842417</v>
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>21.06383968087474</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.000421147959941</v>
+        <v>6.000421147961845</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.2633122807012</v>
@@ -27950,7 +27950,7 @@
         <v>101.8029391869975</v>
       </c>
       <c r="I9" t="n">
-        <v>52.20536825624378</v>
+        <v>52.20536825624398</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>33.09037662280336</v>
       </c>
       <c r="S9" t="n">
-        <v>151.6188391852964</v>
+        <v>151.6188391852965</v>
       </c>
       <c r="T9" t="n">
-        <v>195.8107449797945</v>
+        <v>195.8107449797946</v>
       </c>
       <c r="U9" t="n">
         <v>225.8703159702834</v>
       </c>
       <c r="V9" t="n">
-        <v>128.122754111432</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>61.42932862862955</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.18732087449629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>15.60216179118683</v>
+        <v>15.60216179118873</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>154.1754986679236</v>
       </c>
       <c r="I10" t="n">
-        <v>128.2163879526992</v>
+        <v>128.2163879526993</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>136.5739856407217</v>
+        <v>136.5739856407219</v>
       </c>
       <c r="S10" t="n">
         <v>208.2343293760806</v>
@@ -28068,13 +28068,13 @@
         <v>286.2696325844693</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>149.9916406403676</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7743493664423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221208</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221582</v>
       </c>
       <c r="M22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221514</v>
       </c>
       <c r="E23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221207</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221355</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221328</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221167</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
   </sheetData>
@@ -31054,7 +31054,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L2" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M2" t="n">
         <v>165.7299311340341</v>
@@ -31063,7 +31063,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O2" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P2" t="n">
         <v>135.7252782213693</v>
@@ -31078,7 +31078,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U2" t="n">
         <v>0.07550714794001816</v>
@@ -31148,7 +31148,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R3" t="n">
         <v>31.35420961992052</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H4" t="n">
         <v>3.764178316183975</v>
@@ -31215,7 +31215,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M4" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N4" t="n">
         <v>64.78774396352233</v>
@@ -31227,13 +31227,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R4" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S4" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T4" t="n">
         <v>1.808960949495364</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0188965449352</v>
+        <v>2.01889654493519</v>
       </c>
       <c r="H8" t="n">
-        <v>20.67602424081763</v>
+        <v>20.67602424081752</v>
       </c>
       <c r="I8" t="n">
-        <v>77.83350904861437</v>
+        <v>77.83350904861396</v>
       </c>
       <c r="J8" t="n">
-        <v>171.3513206306941</v>
+        <v>171.3513206306932</v>
       </c>
       <c r="K8" t="n">
-        <v>256.8112113778012</v>
+        <v>256.8112113777998</v>
       </c>
       <c r="L8" t="n">
-        <v>318.5970165148619</v>
+        <v>318.5970165148602</v>
       </c>
       <c r="M8" t="n">
-        <v>354.5005679458532</v>
+        <v>354.5005679458513</v>
       </c>
       <c r="N8" t="n">
-        <v>360.2367577541504</v>
+        <v>360.2367577541485</v>
       </c>
       <c r="O8" t="n">
-        <v>340.161355235451</v>
+        <v>340.1613552354492</v>
       </c>
       <c r="P8" t="n">
-        <v>290.3198467823632</v>
+        <v>290.3198467823617</v>
       </c>
       <c r="Q8" t="n">
-        <v>218.0181142668713</v>
+        <v>218.0181142668701</v>
       </c>
       <c r="R8" t="n">
-        <v>126.8195100907859</v>
+        <v>126.8195100907852</v>
       </c>
       <c r="S8" t="n">
-        <v>46.00560501771092</v>
+        <v>46.00560501771068</v>
       </c>
       <c r="T8" t="n">
-        <v>8.837719625453843</v>
+        <v>8.837719625453797</v>
       </c>
       <c r="U8" t="n">
-        <v>0.161511723594816</v>
+        <v>0.1615117235948151</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.080204882509434</v>
+        <v>1.080204882509428</v>
       </c>
       <c r="H9" t="n">
-        <v>10.43250504949901</v>
+        <v>10.43250504949895</v>
       </c>
       <c r="I9" t="n">
-        <v>37.1912645951713</v>
+        <v>37.1912645951711</v>
       </c>
       <c r="J9" t="n">
-        <v>102.0556726935777</v>
+        <v>102.0556726935772</v>
       </c>
       <c r="K9" t="n">
-        <v>174.4293998217098</v>
+        <v>174.4293998217088</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5418539852172</v>
+        <v>234.5418539852159</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6992809761841</v>
+        <v>273.6992809761826</v>
       </c>
       <c r="N9" t="n">
-        <v>280.9432865259952</v>
+        <v>280.9432865259937</v>
       </c>
       <c r="O9" t="n">
-        <v>257.0082204451283</v>
+        <v>257.0082204451269</v>
       </c>
       <c r="P9" t="n">
-        <v>206.2717551521743</v>
+        <v>206.2717551521731</v>
       </c>
       <c r="Q9" t="n">
-        <v>137.8872057041867</v>
+        <v>137.8872057041859</v>
       </c>
       <c r="R9" t="n">
-        <v>67.06745752984013</v>
+        <v>67.06745752983977</v>
       </c>
       <c r="S9" t="n">
-        <v>20.06433191854144</v>
+        <v>20.06433191854133</v>
       </c>
       <c r="T9" t="n">
-        <v>4.353983715027057</v>
+        <v>4.353983715027034</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07106611069141014</v>
+        <v>0.07106611069140976</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9056074870621221</v>
+        <v>0.9056074870621174</v>
       </c>
       <c r="H10" t="n">
-        <v>8.051673839515965</v>
+        <v>8.051673839515923</v>
       </c>
       <c r="I10" t="n">
-        <v>27.2340869745591</v>
+        <v>27.23408697455896</v>
       </c>
       <c r="J10" t="n">
-        <v>64.02644933529203</v>
+        <v>64.02644933529169</v>
       </c>
       <c r="K10" t="n">
-        <v>105.2151244059447</v>
+        <v>105.2151244059442</v>
       </c>
       <c r="L10" t="n">
-        <v>134.6391349401268</v>
+        <v>134.6391349401261</v>
       </c>
       <c r="M10" t="n">
-        <v>141.9580899946561</v>
+        <v>141.9580899946553</v>
       </c>
       <c r="N10" t="n">
-        <v>138.5826439065156</v>
+        <v>138.5826439065148</v>
       </c>
       <c r="O10" t="n">
-        <v>128.0035018985625</v>
+        <v>128.0035018985619</v>
       </c>
       <c r="P10" t="n">
-        <v>109.5291091624952</v>
+        <v>109.5291091624946</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.83227784844735</v>
+        <v>75.83227784844694</v>
       </c>
       <c r="R10" t="n">
-        <v>40.71940573644778</v>
+        <v>40.71940573644756</v>
       </c>
       <c r="S10" t="n">
-        <v>15.7822686608917</v>
+        <v>15.78226866089162</v>
       </c>
       <c r="T10" t="n">
-        <v>3.869413808356339</v>
+        <v>3.869413808356319</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04939677202157036</v>
+        <v>0.04939677202157009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H11" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I11" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L11" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R11" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S11" t="n">
         <v>117.0897208110796</v>
@@ -31792,7 +31792,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H12" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J12" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K12" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L12" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M12" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>616.081659441237</v>
       </c>
       <c r="O12" t="n">
-        <v>584.3932527497839</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P12" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T12" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31917,10 +31917,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J13" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K13" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L13" t="n">
         <v>342.6725659692048</v>
@@ -31932,22 +31932,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P13" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R13" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I14" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L14" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R14" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>554.7018671605765</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32169,22 +32169,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>554.7018671605765</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>573.1387203886727</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33035,7 +33035,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>573.1387203886727</v>
+        <v>706.0448840335913</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
         <v>443.9435090247271</v>
@@ -33269,19 +33269,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>176.0878742921111</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33509,10 +33509,10 @@
         <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O33" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33749,10 +33749,10 @@
         <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>602.6701715750696</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,10 +33971,10 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
@@ -33983,13 +33983,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O39" t="n">
-        <v>650.6667329954519</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34220,13 +34220,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O42" t="n">
-        <v>211.6584993001647</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34366,7 +34366,7 @@
         <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.109432438373</v>
       </c>
       <c r="K44" t="n">
         <v>653.6149895171637</v>
@@ -34445,22 +34445,22 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155585</v>
+        <v>357.5145194463132</v>
       </c>
       <c r="M45" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>548.1235910649146</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
         <v>524.9860796892351</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.77159469335611</v>
+        <v>56.77159469335882</v>
       </c>
       <c r="K8" t="n">
-        <v>36.72136033282061</v>
+        <v>36.72136033281924</v>
       </c>
       <c r="L8" t="n">
-        <v>82.83060154487464</v>
+        <v>82.83060154487293</v>
       </c>
       <c r="M8" t="n">
-        <v>124.1543347185805</v>
+        <v>124.1543347185786</v>
       </c>
       <c r="N8" t="n">
-        <v>130.8236941575595</v>
+        <v>130.8236941575576</v>
       </c>
       <c r="O8" t="n">
-        <v>110.0631438137642</v>
+        <v>110.0631438137624</v>
       </c>
       <c r="P8" t="n">
-        <v>59.08685102709364</v>
+        <v>59.08685102709211</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>36.58796084735076</v>
+        <v>36.58796084734982</v>
       </c>
       <c r="L9" t="n">
-        <v>95.98747420534301</v>
+        <v>95.98747420534175</v>
       </c>
       <c r="M9" t="n">
-        <v>131.5652470541658</v>
+        <v>131.5652470541643</v>
       </c>
       <c r="N9" t="n">
-        <v>149.6015744426619</v>
+        <v>149.6015744426604</v>
       </c>
       <c r="O9" t="n">
-        <v>114.4119760006839</v>
+        <v>114.4119760006824</v>
       </c>
       <c r="P9" t="n">
-        <v>72.29734773784401</v>
+        <v>72.2973477378429</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>82.9456325800613</v>
       </c>
       <c r="L10" t="n">
-        <v>151.644659307441</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="M10" t="n">
-        <v>151.644659307441</v>
+        <v>3.03230604705027</v>
       </c>
       <c r="N10" t="n">
-        <v>38.70993393833754</v>
+        <v>104.3766546186638</v>
       </c>
       <c r="O10" t="n">
-        <v>151.644659307441</v>
+        <v>151.6446593074391</v>
       </c>
       <c r="P10" t="n">
-        <v>106.8076684273886</v>
+        <v>106.8076684273881</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P11" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R11" t="n">
         <v>107.1851555440239</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K12" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="O12" t="n">
-        <v>441.7970083053394</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P12" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K13" t="n">
         <v>245.5154777892838</v>
@@ -35577,13 +35577,13 @@
         <v>400.8840515372959</v>
       </c>
       <c r="N13" t="n">
-        <v>396.8414363488768</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O13" t="n">
         <v>350.3692208386573</v>
       </c>
       <c r="P13" t="n">
-        <v>276.0431317030919</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q13" t="n">
         <v>106.8400972119442</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169889</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>412.5678332385582</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
@@ -35814,13 +35814,13 @@
         <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488768</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030919</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116839</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>412.5678332385582</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193539</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721828</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
         <v>575.1007761169878</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817367</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641582</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440229</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>441.7970083053394</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
@@ -36525,7 +36525,7 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010888</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908713</v>
@@ -36534,7 +36534,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36683,7 +36683,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>441.7970083053394</v>
+        <v>574.703171950258</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.899754238157</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151683</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
         <v>306.1020700503681</v>
@@ -36917,19 +36917,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>33.95384037009278</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O30" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37090,7 +37090,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O33" t="n">
-        <v>460.0739271306251</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37397,10 +37397,10 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>460.0739271306251</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
@@ -37631,13 +37631,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O39" t="n">
-        <v>508.0704885510074</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193552</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37868,13 +37868,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O42" t="n">
-        <v>69.06225485572025</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116867</v>
       </c>
       <c r="K44" t="n">
         <v>433.5251384721832</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356843</v>
+        <v>218.960139666439</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>416.7818789815813</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749049</v>
@@ -38178,16 +38178,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
